--- a/steven/extdata/source/1000_GWASset_cytokine_concentrations_BSA_zeroscorrected.xlsx
+++ b/steven/extdata/source/1000_GWASset_cytokine_concentrations_BSA_zeroscorrected.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mcrfnas2\bigdata\Genetic\Projects\shg047\rheumatology\cytokine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="18195" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="BSA-adjusted Cytokine conc" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3053,7 +3057,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3612,6 +3616,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3659,7 +3666,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3694,7 +3701,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -38965,16 +38972,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>